--- a/导表工具/Y-邮件表.xlsx
+++ b/导表工具/Y-邮件表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="801" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="801" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="邮件配置" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="258">
   <si>
     <t>导出类型</t>
   </si>
@@ -982,12 +982,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1057,8 +1057,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1072,21 +1080,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1101,91 +1108,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1207,6 +1130,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1215,14 +1206,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1260,7 +1264,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,13 +1354,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,31 +1432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1326,121 +1444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,26 +1541,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1576,17 +1580,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1610,27 +1625,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1639,157 +1643,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1870,9 +1874,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2303,7 +2304,7 @@
       <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="13.875" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="6" customWidth="1"/>
@@ -2527,7 +2528,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" ht="21" spans="2:18">
+    <row r="16" ht="21.75" spans="2:18">
       <c r="B16" s="6">
         <v>9</v>
       </c>
@@ -2556,7 +2557,7 @@
       <c r="Q16" s="20"/>
       <c r="R16" s="16"/>
     </row>
-    <row r="17" ht="16.95" spans="2:18">
+    <row r="17" ht="17.25" spans="2:18">
       <c r="B17" s="6">
         <v>10</v>
       </c>
@@ -2599,7 +2600,7 @@
       </c>
       <c r="R17" s="16"/>
     </row>
-    <row r="18" ht="15.6" spans="2:18">
+    <row r="18" ht="16.5" spans="2:18">
       <c r="B18" s="6">
         <v>11</v>
       </c>
@@ -2639,7 +2640,7 @@
       </c>
       <c r="R18" s="16"/>
     </row>
-    <row r="19" ht="15.6" spans="2:18">
+    <row r="19" ht="16.5" spans="2:18">
       <c r="B19" s="6">
         <v>12</v>
       </c>
@@ -2681,7 +2682,7 @@
       </c>
       <c r="R19" s="16"/>
     </row>
-    <row r="20" ht="15.6" spans="2:18">
+    <row r="20" ht="16.5" spans="2:18">
       <c r="B20" s="6">
         <v>13</v>
       </c>
@@ -2723,7 +2724,7 @@
       </c>
       <c r="R20" s="16"/>
     </row>
-    <row r="21" ht="15.6" spans="2:18">
+    <row r="21" ht="16.5" spans="2:18">
       <c r="B21" s="6">
         <v>14</v>
       </c>
@@ -2765,7 +2766,7 @@
       </c>
       <c r="R21" s="16"/>
     </row>
-    <row r="22" ht="15.6" spans="2:18">
+    <row r="22" ht="16.5" spans="2:18">
       <c r="B22" s="6">
         <v>15</v>
       </c>
@@ -2810,7 +2811,7 @@
       </c>
       <c r="R22" s="16"/>
     </row>
-    <row r="23" ht="15.6" spans="2:18">
+    <row r="23" ht="16.5" spans="2:18">
       <c r="B23" s="6">
         <v>16</v>
       </c>
@@ -2855,7 +2856,7 @@
       </c>
       <c r="R23" s="16"/>
     </row>
-    <row r="24" ht="15.6" spans="2:18">
+    <row r="24" ht="16.5" spans="2:18">
       <c r="B24" s="6">
         <v>17</v>
       </c>
@@ -2900,7 +2901,7 @@
       </c>
       <c r="R24" s="16"/>
     </row>
-    <row r="25" ht="15.6" spans="2:18">
+    <row r="25" ht="16.5" spans="2:18">
       <c r="B25" s="6">
         <v>18</v>
       </c>
@@ -2945,7 +2946,7 @@
       </c>
       <c r="R25" s="16"/>
     </row>
-    <row r="26" ht="15.6" spans="2:18">
+    <row r="26" ht="16.5" spans="2:18">
       <c r="B26" s="6">
         <v>19</v>
       </c>
@@ -2989,7 +2990,7 @@
       </c>
       <c r="R26" s="16"/>
     </row>
-    <row r="27" ht="15.6" spans="2:18">
+    <row r="27" ht="16.5" spans="2:18">
       <c r="B27" s="6">
         <v>20</v>
       </c>
@@ -3033,7 +3034,7 @@
       </c>
       <c r="R27" s="16"/>
     </row>
-    <row r="28" ht="15.6" spans="2:18">
+    <row r="28" ht="16.5" spans="2:18">
       <c r="B28" s="6">
         <v>21</v>
       </c>
@@ -3077,7 +3078,7 @@
       </c>
       <c r="R28" s="16"/>
     </row>
-    <row r="29" ht="15.6" spans="2:18">
+    <row r="29" ht="16.5" spans="2:18">
       <c r="B29" s="6">
         <v>22</v>
       </c>
@@ -3121,7 +3122,7 @@
       </c>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" ht="15.6" spans="2:18">
+    <row r="30" ht="16.5" spans="2:18">
       <c r="B30" s="6">
         <v>23</v>
       </c>
@@ -3165,7 +3166,7 @@
       </c>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" ht="15.6" spans="2:18">
+    <row r="31" ht="16.5" spans="2:18">
       <c r="B31" s="6">
         <v>24</v>
       </c>
@@ -3209,7 +3210,7 @@
       </c>
       <c r="R31" s="16"/>
     </row>
-    <row r="32" ht="15.6" spans="2:18">
+    <row r="32" ht="16.5" spans="2:18">
       <c r="B32" s="6">
         <v>25</v>
       </c>
@@ -3253,7 +3254,7 @@
       </c>
       <c r="R32" s="16"/>
     </row>
-    <row r="33" ht="15.6" spans="2:18">
+    <row r="33" ht="16.5" spans="2:18">
       <c r="B33" s="6">
         <v>26</v>
       </c>
@@ -3297,7 +3298,7 @@
       </c>
       <c r="R33" s="16"/>
     </row>
-    <row r="34" ht="15.6" spans="2:18">
+    <row r="34" ht="16.5" spans="2:18">
       <c r="B34" s="6">
         <v>27</v>
       </c>
@@ -3341,7 +3342,7 @@
       </c>
       <c r="R34" s="16"/>
     </row>
-    <row r="35" ht="15.6" spans="2:18">
+    <row r="35" ht="16.5" spans="2:18">
       <c r="B35" s="6">
         <v>28</v>
       </c>
@@ -3385,7 +3386,7 @@
       </c>
       <c r="R35" s="16"/>
     </row>
-    <row r="36" ht="15.6" spans="2:18">
+    <row r="36" ht="16.5" spans="2:18">
       <c r="B36" s="6">
         <v>29</v>
       </c>
@@ -3418,7 +3419,7 @@
       </c>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" ht="15.6" spans="2:18">
+    <row r="37" ht="16.5" spans="2:18">
       <c r="B37" s="6">
         <v>30</v>
       </c>
@@ -3451,7 +3452,7 @@
       </c>
       <c r="R37" s="16"/>
     </row>
-    <row r="38" ht="15.6" spans="2:18">
+    <row r="38" ht="16.5" spans="2:18">
       <c r="B38" s="6">
         <v>31</v>
       </c>
@@ -3484,7 +3485,7 @@
       </c>
       <c r="R38" s="16"/>
     </row>
-    <row r="39" ht="15.6" spans="2:18">
+    <row r="39" ht="16.5" spans="2:18">
       <c r="B39" s="6">
         <v>32</v>
       </c>
@@ -3517,7 +3518,7 @@
       </c>
       <c r="R39" s="16"/>
     </row>
-    <row r="40" ht="15.6" spans="2:18">
+    <row r="40" ht="16.5" spans="2:18">
       <c r="B40" s="6">
         <v>33</v>
       </c>
@@ -3550,7 +3551,7 @@
       </c>
       <c r="R40" s="16"/>
     </row>
-    <row r="41" ht="15.6" spans="2:18">
+    <row r="41" ht="16.5" spans="2:18">
       <c r="B41" s="6">
         <v>34</v>
       </c>
@@ -3583,7 +3584,7 @@
       </c>
       <c r="R41" s="16"/>
     </row>
-    <row r="42" ht="15.6" spans="2:18">
+    <row r="42" ht="16.5" spans="2:18">
       <c r="B42" s="6">
         <v>35</v>
       </c>
@@ -3616,7 +3617,7 @@
       </c>
       <c r="R42" s="16"/>
     </row>
-    <row r="43" ht="15.6" spans="2:18">
+    <row r="43" ht="16.5" spans="2:18">
       <c r="B43" s="6">
         <v>36</v>
       </c>
@@ -3649,7 +3650,7 @@
       </c>
       <c r="R43" s="16"/>
     </row>
-    <row r="44" ht="15.6" spans="2:18">
+    <row r="44" ht="16.5" spans="2:18">
       <c r="B44" s="6">
         <v>37</v>
       </c>
@@ -3682,7 +3683,7 @@
       </c>
       <c r="R44" s="16"/>
     </row>
-    <row r="45" ht="15.6" spans="2:18">
+    <row r="45" ht="16.5" spans="2:18">
       <c r="B45" s="6">
         <v>38</v>
       </c>
@@ -3715,7 +3716,7 @@
       </c>
       <c r="R45" s="16"/>
     </row>
-    <row r="46" ht="15.6" spans="2:18">
+    <row r="46" ht="16.5" spans="2:18">
       <c r="B46" s="6">
         <v>39</v>
       </c>
@@ -3748,7 +3749,7 @@
       </c>
       <c r="R46" s="16"/>
     </row>
-    <row r="47" ht="15.6" spans="2:18">
+    <row r="47" ht="16.5" spans="2:18">
       <c r="B47" s="6">
         <v>40</v>
       </c>
@@ -3781,7 +3782,7 @@
       </c>
       <c r="R47" s="16"/>
     </row>
-    <row r="48" ht="15.6" spans="2:18">
+    <row r="48" ht="16.5" spans="2:18">
       <c r="B48" s="6">
         <v>41</v>
       </c>
@@ -4030,7 +4031,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="65" ht="15.6" spans="2:5">
+    <row r="65" ht="16.5" spans="2:5">
       <c r="B65" s="14">
         <v>61</v>
       </c>
@@ -4044,7 +4045,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="66" ht="15.6" spans="2:5">
+    <row r="66" ht="16.5" spans="2:5">
       <c r="B66" s="14">
         <v>62</v>
       </c>
@@ -4058,7 +4059,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" ht="15.6" spans="2:5">
+    <row r="67" ht="16.5" spans="2:5">
       <c r="B67" s="14">
         <v>63</v>
       </c>
@@ -4072,7 +4073,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" ht="15.6" spans="2:5">
+    <row r="68" ht="16.5" spans="2:5">
       <c r="B68" s="14">
         <v>64</v>
       </c>
@@ -4086,7 +4087,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" ht="15.6" spans="2:5">
+    <row r="69" ht="16.5" spans="2:5">
       <c r="B69" s="14">
         <v>65</v>
       </c>
@@ -4100,7 +4101,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="70" ht="15.6" spans="2:5">
+    <row r="70" ht="16.5" spans="2:5">
       <c r="B70" s="14">
         <v>66</v>
       </c>
@@ -4114,7 +4115,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="71" ht="15.6" spans="2:5">
+    <row r="71" ht="16.5" spans="2:5">
       <c r="B71" s="14">
         <v>67</v>
       </c>
@@ -4128,7 +4129,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="72" ht="15.6" spans="2:5">
+    <row r="72" ht="16.5" spans="2:5">
       <c r="B72" s="14">
         <v>68</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="73" ht="15.6" spans="2:5">
+    <row r="73" ht="16.5" spans="2:5">
       <c r="B73" s="14">
         <v>69</v>
       </c>
@@ -4156,7 +4157,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="74" ht="15.6" spans="2:5">
+    <row r="74" ht="16.5" spans="2:5">
       <c r="B74" s="14">
         <v>70</v>
       </c>
@@ -4170,7 +4171,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="75" ht="15.6" spans="2:5">
+    <row r="75" ht="16.5" spans="2:5">
       <c r="B75" s="14">
         <v>71</v>
       </c>
@@ -4184,7 +4185,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" ht="15.6" spans="2:5">
+    <row r="76" ht="16.5" spans="2:5">
       <c r="B76" s="14">
         <v>72</v>
       </c>
@@ -4198,7 +4199,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="77" ht="15.6" spans="2:5">
+    <row r="77" ht="16.5" spans="2:5">
       <c r="B77" s="14">
         <v>73</v>
       </c>
@@ -4212,7 +4213,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="78" ht="15.6" spans="2:5">
+    <row r="78" ht="16.5" spans="2:5">
       <c r="B78" s="14">
         <v>74</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="79" ht="13.2" spans="2:4">
+    <row r="79" ht="14.25" spans="2:4">
       <c r="B79" s="14">
         <v>75</v>
       </c>
@@ -4237,7 +4238,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="80" ht="13.2" spans="2:4">
+    <row r="80" ht="14.25" spans="2:4">
       <c r="B80" s="6">
         <v>76</v>
       </c>
@@ -4248,7 +4249,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="81" ht="13.2" spans="2:4">
+    <row r="81" ht="14.25" spans="2:4">
       <c r="B81" s="14">
         <v>77</v>
       </c>
@@ -4259,7 +4260,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="82" s="15" customFormat="1" ht="16.35" spans="2:9">
+    <row r="82" s="15" customFormat="1" ht="17.25" spans="2:9">
       <c r="B82" s="15">
         <v>78</v>
       </c>
@@ -4270,9 +4271,9 @@
         <v>215</v>
       </c>
       <c r="F82" s="24"/>
-      <c r="I82" s="28"/>
-    </row>
-    <row r="83" ht="16.35" spans="2:6">
+      <c r="I82" s="27"/>
+    </row>
+    <row r="83" ht="17.25" spans="2:6">
       <c r="B83" s="14">
         <v>79</v>
       </c>
@@ -4284,7 +4285,7 @@
       </c>
       <c r="F83" s="25"/>
     </row>
-    <row r="84" ht="15.6" spans="2:6">
+    <row r="84" ht="16.5" spans="2:6">
       <c r="B84" s="6">
         <v>80</v>
       </c>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F84" s="25"/>
     </row>
-    <row r="85" ht="15.6" spans="2:6">
+    <row r="85" ht="16.5" spans="2:6">
       <c r="B85" s="14">
         <v>81</v>
       </c>
@@ -4308,7 +4309,7 @@
       </c>
       <c r="F85" s="25"/>
     </row>
-    <row r="86" ht="15.6" spans="2:6">
+    <row r="86" ht="16.5" spans="2:6">
       <c r="B86" s="6">
         <v>82</v>
       </c>
@@ -4320,7 +4321,7 @@
       </c>
       <c r="F86" s="25"/>
     </row>
-    <row r="87" ht="15.6" spans="2:6">
+    <row r="87" ht="16.5" spans="2:6">
       <c r="B87" s="14">
         <v>83</v>
       </c>
@@ -4332,7 +4333,7 @@
       </c>
       <c r="F87" s="25"/>
     </row>
-    <row r="88" s="15" customFormat="1" ht="16.35" spans="2:9">
+    <row r="88" s="15" customFormat="1" ht="17.25" spans="2:9">
       <c r="B88" s="15">
         <v>84</v>
       </c>
@@ -4343,9 +4344,9 @@
         <v>221</v>
       </c>
       <c r="F88" s="24"/>
-      <c r="I88" s="28"/>
-    </row>
-    <row r="89" ht="16.35" spans="2:6">
+      <c r="I88" s="27"/>
+    </row>
+    <row r="89" ht="17.25" spans="2:6">
       <c r="B89" s="14">
         <v>85</v>
       </c>
@@ -4357,7 +4358,7 @@
       </c>
       <c r="F89" s="25"/>
     </row>
-    <row r="90" ht="15.6" spans="2:6">
+    <row r="90" ht="16.5" spans="2:6">
       <c r="B90" s="6">
         <v>86</v>
       </c>
@@ -4369,7 +4370,7 @@
       </c>
       <c r="F90" s="25"/>
     </row>
-    <row r="91" ht="15.6" spans="2:6">
+    <row r="91" ht="16.5" spans="2:6">
       <c r="B91" s="14">
         <v>87</v>
       </c>
@@ -4381,7 +4382,7 @@
       </c>
       <c r="F91" s="25"/>
     </row>
-    <row r="92" s="15" customFormat="1" ht="16.35" spans="2:9">
+    <row r="92" s="15" customFormat="1" ht="17.25" spans="2:9">
       <c r="B92" s="15">
         <v>88</v>
       </c>
@@ -4392,9 +4393,9 @@
         <v>225</v>
       </c>
       <c r="F92" s="24"/>
-      <c r="I92" s="28"/>
-    </row>
-    <row r="93" ht="16.35" spans="2:6">
+      <c r="I92" s="27"/>
+    </row>
+    <row r="93" ht="17.25" spans="2:6">
       <c r="B93" s="14">
         <v>89</v>
       </c>
@@ -4406,7 +4407,7 @@
       </c>
       <c r="F93" s="25"/>
     </row>
-    <row r="94" ht="15.6" spans="2:6">
+    <row r="94" ht="16.5" spans="2:6">
       <c r="B94" s="6">
         <v>90</v>
       </c>
@@ -4418,7 +4419,7 @@
       </c>
       <c r="F94" s="25"/>
     </row>
-    <row r="95" ht="15.6" spans="2:6">
+    <row r="95" ht="16.5" spans="2:6">
       <c r="B95" s="14">
         <v>91</v>
       </c>
@@ -4430,7 +4431,7 @@
       </c>
       <c r="F95" s="25"/>
     </row>
-    <row r="96" ht="13.2" spans="2:4">
+    <row r="96" ht="14.25" spans="2:4">
       <c r="B96" s="6">
         <v>92</v>
       </c>
@@ -4441,7 +4442,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="97" ht="13.2" spans="2:6">
+    <row r="97" ht="14.25" spans="2:6">
       <c r="B97" s="14">
         <v>93</v>
       </c>
@@ -4454,7 +4455,7 @@
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" ht="13.95" spans="2:6">
+    <row r="98" ht="15" spans="2:6">
       <c r="B98" s="15">
         <v>94</v>
       </c>
@@ -4467,7 +4468,7 @@
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
     </row>
-    <row r="99" ht="16.35" spans="2:5">
+    <row r="99" ht="17.25" spans="2:5">
       <c r="B99" s="14">
         <v>95</v>
       </c>
@@ -4481,7 +4482,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="100" ht="15.6" spans="2:5">
+    <row r="100" ht="16.5" spans="2:5">
       <c r="B100" s="6">
         <v>96</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="101" ht="15.6" spans="2:5">
+    <row r="101" ht="16.5" spans="2:5">
       <c r="B101" s="14">
         <v>97</v>
       </c>
@@ -4509,33 +4510,33 @@
         <v>240</v>
       </c>
     </row>
-    <row r="102" ht="13.2" spans="2:4">
+    <row r="102" ht="14.25" spans="2:4">
       <c r="B102" s="6">
         <v>98</v>
       </c>
-      <c r="C102" s="27" t="s">
+      <c r="C102" s="6" t="s">
         <v>241</v>
       </c>
       <c r="D102" s="22" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="103" ht="13.2" spans="2:4">
+    <row r="103" ht="14.25" spans="2:4">
       <c r="B103" s="6">
         <v>99</v>
       </c>
-      <c r="C103" s="27" t="s">
+      <c r="C103" s="6" t="s">
         <v>241</v>
       </c>
       <c r="D103" s="22" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="104" ht="13.2" spans="2:4">
+    <row r="104" ht="14.25" spans="2:4">
       <c r="B104" s="6">
         <v>100</v>
       </c>
-      <c r="C104" s="27" t="s">
+      <c r="C104" s="6" t="s">
         <v>241</v>
       </c>
       <c r="D104" s="22" t="s">
@@ -4559,12 +4560,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="10.8" spans="1:9">
+    <row r="1" s="6" customFormat="1" ht="11.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4581,7 +4582,7 @@
       <c r="F1" s="5"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" s="6" customFormat="1" ht="10.8" spans="1:9">
+    <row r="2" s="6" customFormat="1" ht="11.25" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4598,7 +4599,7 @@
       <c r="F2" s="7"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" s="6" customFormat="1" ht="10.8" spans="1:9">
+    <row r="3" s="6" customFormat="1" ht="11.25" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -4610,7 +4611,7 @@
       <c r="E3" s="9"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" s="6" customFormat="1" ht="10.8" spans="1:9">
+    <row r="4" s="6" customFormat="1" ht="11.25" spans="1:9">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -4618,7 +4619,7 @@
       <c r="E4" s="10"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" s="6" customFormat="1" ht="10.8" spans="1:4">
+    <row r="5" s="6" customFormat="1" ht="11.25" spans="1:4">
       <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
@@ -4632,7 +4633,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="10.8" spans="1:4">
+    <row r="6" s="6" customFormat="1" ht="11.25" spans="1:4">
       <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" ht="10.8" spans="1:4">
+    <row r="7" s="6" customFormat="1" ht="11.25" spans="1:4">
       <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
@@ -4691,10 +4692,10 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
@@ -4816,21 +4817,12 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
+    <row r="9" spans="3:4">
+      <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="2:4">
